--- a/Excel_file/Each_day_usage.xlsx
+++ b/Excel_file/Each_day_usage.xlsx
@@ -1,43 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="day 1 usage" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="day 2 usage" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="day 3 usage" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="day 4 usage" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="day 5 usage" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="day 6 usage" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="day 7 usage" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="day 8 usage" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="day 9 usage" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="day 10 usage" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="day 11 usage" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="day 12 usage" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="day 13 usage" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="day 14 usage" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="day 15 usage" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="day 16 usage" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="day 17 usage" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="day 18 usage" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="day 19 usage" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="day 20 usage" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="day 21 usage" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="day 22 usage" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="day 23 usage" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="day 24 usage" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="day 25 usage" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="day 26 usage" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="day 27 usage" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="day 28 usage" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="day 29 usage" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="day 30 usage" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="day 31 usage" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 1 usage" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 2 usage" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 3 usage" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 4 usage" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 5 usage" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 6 usage" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 7 usage" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 8 usage" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 9 usage" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 10 usage" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 11 usage" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 12 usage" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 13 usage" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 14 usage" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 15 usage" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 16 usage" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 17 usage" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 18 usage" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 19 usage" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 20 usage" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 21 usage" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 22 usage" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 23 usage" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 24 usage" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 25 usage" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 26 usage" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 27 usage" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 28 usage" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 29 usage" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 30 usage" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 31 usage" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 32 usage" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 33 usage" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 34 usage" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 35 usage" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 36 usage" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 37 usage" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 38 usage" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="day 39 usage" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -597,7 +605,7 @@
         <v>44630</v>
       </c>
       <c r="D2" t="n">
-        <v>155</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -613,7 +621,7 @@
         <v>44630</v>
       </c>
       <c r="D3" t="n">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +637,7 @@
         <v>44630</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +653,7 @@
         <v>44630</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
@@ -661,7 +669,7 @@
         <v>44630</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -677,7 +685,7 @@
         <v>44630</v>
       </c>
       <c r="D7" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -693,7 +701,7 @@
         <v>44630</v>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -745,7 +753,7 @@
         <v>44631</v>
       </c>
       <c r="D2" t="n">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +769,7 @@
         <v>44631</v>
       </c>
       <c r="D3" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -777,7 +785,7 @@
         <v>44631</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -793,7 +801,7 @@
         <v>44631</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -809,7 +817,7 @@
         <v>44631</v>
       </c>
       <c r="D6" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -825,7 +833,7 @@
         <v>44631</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -841,7 +849,7 @@
         <v>44631</v>
       </c>
       <c r="D8" t="n">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +901,7 @@
         <v>44632</v>
       </c>
       <c r="D2" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -909,7 +917,7 @@
         <v>44632</v>
       </c>
       <c r="D3" t="n">
-        <v>92</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -925,7 +933,7 @@
         <v>44632</v>
       </c>
       <c r="D4" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -941,7 +949,7 @@
         <v>44632</v>
       </c>
       <c r="D5" t="n">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -957,7 +965,7 @@
         <v>44632</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +981,7 @@
         <v>44632</v>
       </c>
       <c r="D7" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -989,7 +997,7 @@
         <v>44632</v>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1049,7 @@
         <v>44633</v>
       </c>
       <c r="D2" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1057,7 +1065,7 @@
         <v>44633</v>
       </c>
       <c r="D3" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -1073,7 +1081,7 @@
         <v>44633</v>
       </c>
       <c r="D4" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1089,7 +1097,7 @@
         <v>44633</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -1105,7 +1113,7 @@
         <v>44633</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1121,7 +1129,7 @@
         <v>44633</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -1137,7 +1145,7 @@
         <v>44633</v>
       </c>
       <c r="D8" t="n">
-        <v>171</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1197,7 @@
         <v>44634</v>
       </c>
       <c r="D2" t="n">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1205,7 +1213,7 @@
         <v>44634</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1221,7 +1229,7 @@
         <v>44634</v>
       </c>
       <c r="D4" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1237,7 +1245,7 @@
         <v>44634</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1261,7 @@
         <v>44634</v>
       </c>
       <c r="D6" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1269,7 +1277,7 @@
         <v>44634</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -1285,7 +1293,7 @@
         <v>44634</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1345,7 @@
         <v>44635</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -1353,7 +1361,7 @@
         <v>44635</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -1369,7 +1377,7 @@
         <v>44635</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -1385,7 +1393,7 @@
         <v>44635</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1401,7 +1409,7 @@
         <v>44635</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1417,7 +1425,7 @@
         <v>44635</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1433,7 +1441,7 @@
         <v>44635</v>
       </c>
       <c r="D8" t="n">
-        <v>167</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1493,7 @@
         <v>44636</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1501,7 +1509,7 @@
         <v>44636</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1517,7 +1525,7 @@
         <v>44636</v>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1533,7 +1541,7 @@
         <v>44636</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -1549,7 +1557,7 @@
         <v>44636</v>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -1565,7 +1573,7 @@
         <v>44636</v>
       </c>
       <c r="D7" t="n">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1581,7 +1589,7 @@
         <v>44636</v>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1641,7 @@
         <v>44637</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -1649,7 +1657,7 @@
         <v>44637</v>
       </c>
       <c r="D3" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1665,7 +1673,7 @@
         <v>44637</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1681,7 +1689,7 @@
         <v>44637</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -1697,7 +1705,7 @@
         <v>44637</v>
       </c>
       <c r="D6" t="n">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1713,7 +1721,7 @@
         <v>44637</v>
       </c>
       <c r="D7" t="n">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1729,7 +1737,7 @@
         <v>44637</v>
       </c>
       <c r="D8" t="n">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1789,7 @@
         <v>44638</v>
       </c>
       <c r="D2" t="n">
-        <v>169</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -1797,7 +1805,7 @@
         <v>44638</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -1813,7 +1821,7 @@
         <v>44638</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -1829,7 +1837,7 @@
         <v>44638</v>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1845,7 +1853,7 @@
         <v>44638</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1861,7 +1869,7 @@
         <v>44638</v>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1877,7 +1885,7 @@
         <v>44638</v>
       </c>
       <c r="D8" t="n">
-        <v>136</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +1937,7 @@
         <v>44639</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1945,7 +1953,7 @@
         <v>44639</v>
       </c>
       <c r="D3" t="n">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1961,7 +1969,7 @@
         <v>44639</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1977,7 +1985,7 @@
         <v>44639</v>
       </c>
       <c r="D5" t="n">
-        <v>93</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1993,7 +2001,7 @@
         <v>44639</v>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2009,7 +2017,7 @@
         <v>44639</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2025,7 +2033,7 @@
         <v>44639</v>
       </c>
       <c r="D8" t="n">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2077,7 +2085,7 @@
         <v>44622</v>
       </c>
       <c r="D2" t="n">
-        <v>135</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2093,7 +2101,7 @@
         <v>44622</v>
       </c>
       <c r="D3" t="n">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2109,7 +2117,7 @@
         <v>44622</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2125,7 +2133,7 @@
         <v>44622</v>
       </c>
       <c r="D5" t="n">
-        <v>94</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2185,7 @@
         <v>44640</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2193,7 +2201,7 @@
         <v>44640</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2209,7 +2217,7 @@
         <v>44640</v>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -2225,7 +2233,7 @@
         <v>44640</v>
       </c>
       <c r="D5" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -2241,7 +2249,7 @@
         <v>44640</v>
       </c>
       <c r="D6" t="n">
-        <v>67</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -2257,7 +2265,7 @@
         <v>44640</v>
       </c>
       <c r="D7" t="n">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2281,7 @@
         <v>44640</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2333,7 @@
         <v>44641</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -2341,7 +2349,7 @@
         <v>44641</v>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -2357,7 +2365,7 @@
         <v>44641</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2373,7 +2381,7 @@
         <v>44641</v>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -2389,7 +2397,7 @@
         <v>44641</v>
       </c>
       <c r="D6" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -2421,7 +2429,7 @@
         <v>44641</v>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2481,7 @@
         <v>44642</v>
       </c>
       <c r="D2" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -2489,7 +2497,7 @@
         <v>44642</v>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -2505,7 +2513,7 @@
         <v>44642</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -2521,7 +2529,7 @@
         <v>44642</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2537,7 +2545,7 @@
         <v>44642</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -2553,7 +2561,7 @@
         <v>44642</v>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2569,7 +2577,7 @@
         <v>44642</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2621,7 +2629,7 @@
         <v>44643</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2637,7 +2645,7 @@
         <v>44643</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -2653,7 +2661,7 @@
         <v>44643</v>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -2669,7 +2677,7 @@
         <v>44643</v>
       </c>
       <c r="D5" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -2685,7 +2693,7 @@
         <v>44643</v>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2717,7 +2725,7 @@
         <v>44643</v>
       </c>
       <c r="D8" t="n">
-        <v>155</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2769,7 +2777,7 @@
         <v>44644</v>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2785,7 +2793,7 @@
         <v>44644</v>
       </c>
       <c r="D3" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -2801,7 +2809,7 @@
         <v>44644</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2817,7 +2825,7 @@
         <v>44644</v>
       </c>
       <c r="D5" t="n">
-        <v>107</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -2833,7 +2841,7 @@
         <v>44644</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -2849,7 +2857,7 @@
         <v>44644</v>
       </c>
       <c r="D7" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8">
@@ -2865,7 +2873,7 @@
         <v>44644</v>
       </c>
       <c r="D8" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2917,7 +2925,7 @@
         <v>44645</v>
       </c>
       <c r="D2" t="n">
-        <v>119</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -2933,7 +2941,7 @@
         <v>44645</v>
       </c>
       <c r="D3" t="n">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -2949,7 +2957,7 @@
         <v>44645</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -2965,7 +2973,7 @@
         <v>44645</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2981,7 +2989,7 @@
         <v>44645</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
@@ -2997,7 +3005,7 @@
         <v>44645</v>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -3013,7 +3021,7 @@
         <v>44645</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3065,7 +3073,7 @@
         <v>44646</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3081,7 +3089,7 @@
         <v>44646</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -3097,7 +3105,7 @@
         <v>44646</v>
       </c>
       <c r="D4" t="n">
-        <v>103</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -3113,7 +3121,7 @@
         <v>44646</v>
       </c>
       <c r="D5" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -3129,7 +3137,7 @@
         <v>44646</v>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -3145,7 +3153,7 @@
         <v>44646</v>
       </c>
       <c r="D7" t="n">
-        <v>92</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -3161,7 +3169,7 @@
         <v>44646</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3221,7 @@
         <v>44647</v>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3229,7 +3237,7 @@
         <v>44647</v>
       </c>
       <c r="D3" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -3245,7 +3253,7 @@
         <v>44647</v>
       </c>
       <c r="D4" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -3261,7 +3269,7 @@
         <v>44647</v>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -3277,7 +3285,7 @@
         <v>44647</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -3293,7 +3301,7 @@
         <v>44647</v>
       </c>
       <c r="D7" t="n">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -3309,7 +3317,7 @@
         <v>44647</v>
       </c>
       <c r="D8" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3361,7 +3369,7 @@
         <v>44648</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3377,7 +3385,7 @@
         <v>44648</v>
       </c>
       <c r="D3" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3393,7 +3401,7 @@
         <v>44648</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -3409,7 +3417,7 @@
         <v>44648</v>
       </c>
       <c r="D5" t="n">
-        <v>82</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3425,7 +3433,7 @@
         <v>44648</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -3441,7 +3449,7 @@
         <v>44648</v>
       </c>
       <c r="D7" t="n">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -3457,7 +3465,7 @@
         <v>44648</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3509,7 +3517,7 @@
         <v>44649</v>
       </c>
       <c r="D2" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -3525,7 +3533,7 @@
         <v>44649</v>
       </c>
       <c r="D3" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -3541,7 +3549,7 @@
         <v>44649</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -3557,7 +3565,7 @@
         <v>44649</v>
       </c>
       <c r="D5" t="n">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -3573,7 +3581,7 @@
         <v>44649</v>
       </c>
       <c r="D6" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -3589,7 +3597,7 @@
         <v>44649</v>
       </c>
       <c r="D7" t="n">
-        <v>106</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -3605,7 +3613,7 @@
         <v>44649</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3657,7 +3665,7 @@
         <v>44623</v>
       </c>
       <c r="D2" t="n">
-        <v>160</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -3673,7 +3681,7 @@
         <v>44623</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3689,7 +3697,7 @@
         <v>44623</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -3705,7 +3713,7 @@
         <v>44623</v>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3757,7 +3765,7 @@
         <v>44650</v>
       </c>
       <c r="D2" t="n">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -3773,7 +3781,7 @@
         <v>44650</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -3789,7 +3797,7 @@
         <v>44650</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -3805,7 +3813,7 @@
         <v>44650</v>
       </c>
       <c r="D5" t="n">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -3821,7 +3829,7 @@
         <v>44650</v>
       </c>
       <c r="D6" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -3837,7 +3845,7 @@
         <v>44650</v>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -3853,7 +3861,7 @@
         <v>44650</v>
       </c>
       <c r="D8" t="n">
-        <v>106</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3905,7 +3913,7 @@
         <v>44651</v>
       </c>
       <c r="D2" t="n">
-        <v>93</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -3921,7 +3929,7 @@
         <v>44651</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3937,7 +3945,7 @@
         <v>44651</v>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -3953,7 +3961,7 @@
         <v>44651</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -3969,7 +3977,7 @@
         <v>44651</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -3985,7 +3993,7 @@
         <v>44651</v>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -4001,7 +4009,1191 @@
         <v>44651</v>
       </c>
       <c r="D8" t="n">
-        <v>32</v>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D7" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D4" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D6" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D6" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="D8" t="n">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Energy Usage</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>HDD-PTVHP2J</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HDD-YF4OO6F</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HDD-FGY86KQ</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDD-OMEXR1C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HDD-2MS1Z7Y</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>HDD-ET2T10D</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>HDD-Y60ZK3P</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4053,7 +5245,7 @@
         <v>44624</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -4069,7 +5261,7 @@
         <v>44624</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4085,7 +5277,7 @@
         <v>44624</v>
       </c>
       <c r="D4" t="n">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -4101,7 +5293,7 @@
         <v>44624</v>
       </c>
       <c r="D5" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -4201,7 +5393,7 @@
         <v>44625</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4217,7 +5409,7 @@
         <v>44625</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -4233,7 +5425,7 @@
         <v>44625</v>
       </c>
       <c r="D4" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -4249,7 +5441,7 @@
         <v>44625</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4265,7 +5457,7 @@
         <v>44625</v>
       </c>
       <c r="D6" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -4281,7 +5473,7 @@
         <v>44625</v>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -4297,7 +5489,7 @@
         <v>44625</v>
       </c>
       <c r="D8" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4349,7 +5541,7 @@
         <v>44626</v>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -4365,7 +5557,7 @@
         <v>44626</v>
       </c>
       <c r="D3" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4381,7 +5573,7 @@
         <v>44626</v>
       </c>
       <c r="D4" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -4397,7 +5589,7 @@
         <v>44626</v>
       </c>
       <c r="D5" t="n">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -4413,7 +5605,7 @@
         <v>44626</v>
       </c>
       <c r="D6" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -4429,7 +5621,7 @@
         <v>44626</v>
       </c>
       <c r="D7" t="n">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -4445,7 +5637,7 @@
         <v>44626</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4497,7 +5689,7 @@
         <v>44627</v>
       </c>
       <c r="D2" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -4513,7 +5705,7 @@
         <v>44627</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -4529,7 +5721,7 @@
         <v>44627</v>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -4545,7 +5737,7 @@
         <v>44627</v>
       </c>
       <c r="D5" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -4561,7 +5753,7 @@
         <v>44627</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -4577,7 +5769,7 @@
         <v>44627</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -4593,7 +5785,7 @@
         <v>44627</v>
       </c>
       <c r="D8" t="n">
-        <v>158</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4645,7 +5837,7 @@
         <v>44628</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -4661,7 +5853,7 @@
         <v>44628</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -4677,7 +5869,7 @@
         <v>44628</v>
       </c>
       <c r="D4" t="n">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -4693,7 +5885,7 @@
         <v>44628</v>
       </c>
       <c r="D5" t="n">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -4709,7 +5901,7 @@
         <v>44628</v>
       </c>
       <c r="D6" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -4725,7 +5917,7 @@
         <v>44628</v>
       </c>
       <c r="D7" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
@@ -4741,7 +5933,7 @@
         <v>44628</v>
       </c>
       <c r="D8" t="n">
-        <v>143</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4793,7 +5985,7 @@
         <v>44629</v>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -4809,7 +6001,7 @@
         <v>44629</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -4825,7 +6017,7 @@
         <v>44629</v>
       </c>
       <c r="D4" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -4841,7 +6033,7 @@
         <v>44629</v>
       </c>
       <c r="D5" t="n">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
@@ -4857,7 +6049,7 @@
         <v>44629</v>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -4873,7 +6065,7 @@
         <v>44629</v>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -4889,7 +6081,7 @@
         <v>44629</v>
       </c>
       <c r="D8" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
